--- a/config_debug/mini_game_config.xlsx
+++ b/config_debug/mini_game_config.xlsx
@@ -587,7 +587,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -769,7 +769,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>56</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -860,7 +860,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>28</v>
@@ -915,13 +915,13 @@
         <v>53</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>46</v>
@@ -938,13 +938,13 @@
         <v>54</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
         <v>48</v>

--- a/config_debug/mini_game_config.xlsx
+++ b/config_debug/mini_game_config.xlsx
@@ -587,7 +587,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>

--- a/config_debug/mini_game_config.xlsx
+++ b/config_debug/mini_game_config.xlsx
@@ -587,7 +587,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
